--- a/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-07-22/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -1664,13 +1664,13 @@
         <v>10</v>
       </c>
       <c r="C36">
-        <v>201145</v>
+        <v>201144</v>
       </c>
       <c r="D36">
         <v>48090</v>
       </c>
       <c r="E36">
-        <v>389033502</v>
+        <v>389033415</v>
       </c>
       <c r="F36" t="s">
         <v>13</v>
